--- a/user-data/non-grant-revenue-PPP-capita/non-grant-revenue-PPP-capita.xlsx
+++ b/user-data/non-grant-revenue-PPP-capita/non-grant-revenue-PPP-capita.xlsx
@@ -64,7 +64,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AM</t>
@@ -136,7 +136,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -163,82 +163,82 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>CY</t>
@@ -784,7 +784,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -802,7 +802,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -985,18 +985,18 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>UY</t>
   </si>
   <si>
@@ -1099,7 +1099,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -3703,7 +3703,7 @@
         <v>2010</v>
       </c>
       <c r="D128" t="n">
-        <v>491.3300148</v>
+        <v>312.6722702</v>
       </c>
       <c r="E128" t="s">
         <v>7</v>
@@ -3720,7 +3720,7 @@
         <v>2011</v>
       </c>
       <c r="D129" t="n">
-        <v>368.1014417</v>
+        <v>331.8340081</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
@@ -3737,7 +3737,7 @@
         <v>2012</v>
       </c>
       <c r="D130" t="n">
-        <v>503.0291934</v>
+        <v>401.7800978</v>
       </c>
       <c r="E130" t="s">
         <v>7</v>
@@ -3754,10 +3754,10 @@
         <v>2013</v>
       </c>
       <c r="D131" t="n">
-        <v>533.8512772</v>
+        <v>423.2165221</v>
       </c>
       <c r="E131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
@@ -3771,7 +3771,7 @@
         <v>2014</v>
       </c>
       <c r="D132" t="n">
-        <v>538.668973</v>
+        <v>479.060816</v>
       </c>
       <c r="E132" t="s">
         <v>8</v>
@@ -3787,9 +3787,7 @@
       <c r="C133" t="n">
         <v>2015</v>
       </c>
-      <c r="D133" t="n">
-        <v>592.9318093</v>
-      </c>
+      <c r="D133"/>
       <c r="E133" t="s">
         <v>8</v>
       </c>
@@ -3805,7 +3803,7 @@
         <v>2010</v>
       </c>
       <c r="D134" t="n">
-        <v>312.6722702</v>
+        <v>430.8766689</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
@@ -3822,7 +3820,7 @@
         <v>2011</v>
       </c>
       <c r="D135" t="n">
-        <v>331.8340081</v>
+        <v>474.1839289</v>
       </c>
       <c r="E135" t="s">
         <v>7</v>
@@ -3839,7 +3837,7 @@
         <v>2012</v>
       </c>
       <c r="D136" t="n">
-        <v>401.7800978</v>
+        <v>480.4732925</v>
       </c>
       <c r="E136" t="s">
         <v>7</v>
@@ -3856,10 +3854,10 @@
         <v>2013</v>
       </c>
       <c r="D137" t="n">
-        <v>423.2165221</v>
+        <v>493.4536253</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -3873,7 +3871,7 @@
         <v>2014</v>
       </c>
       <c r="D138" t="n">
-        <v>479.060816</v>
+        <v>513.1193721</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -3889,7 +3887,9 @@
       <c r="C139" t="n">
         <v>2015</v>
       </c>
-      <c r="D139"/>
+      <c r="D139" t="n">
+        <v>516.3361023</v>
+      </c>
       <c r="E139" t="s">
         <v>8</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>2010</v>
       </c>
       <c r="D140" t="n">
-        <v>430.8766689</v>
+        <v>15994.93803</v>
       </c>
       <c r="E140" t="s">
         <v>7</v>
@@ -3922,7 +3922,7 @@
         <v>2011</v>
       </c>
       <c r="D141" t="n">
-        <v>474.1839289</v>
+        <v>16002.06281</v>
       </c>
       <c r="E141" t="s">
         <v>7</v>
@@ -3939,7 +3939,7 @@
         <v>2012</v>
       </c>
       <c r="D142" t="n">
-        <v>480.4732925</v>
+        <v>16175.6609</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
@@ -3956,7 +3956,7 @@
         <v>2013</v>
       </c>
       <c r="D143" t="n">
-        <v>493.4536253</v>
+        <v>16289.67278</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
@@ -3973,10 +3973,10 @@
         <v>2014</v>
       </c>
       <c r="D144" t="n">
-        <v>513.1193721</v>
+        <v>16347.95768</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
@@ -3990,7 +3990,7 @@
         <v>2015</v>
       </c>
       <c r="D145" t="n">
-        <v>516.3361023</v>
+        <v>16888.1259</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -4007,7 +4007,7 @@
         <v>2010</v>
       </c>
       <c r="D146" t="n">
-        <v>15994.93803</v>
+        <v>1316.188918</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
@@ -4024,7 +4024,7 @@
         <v>2011</v>
       </c>
       <c r="D147" t="n">
-        <v>16002.06281</v>
+        <v>1415.761562</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
@@ -4041,7 +4041,7 @@
         <v>2012</v>
       </c>
       <c r="D148" t="n">
-        <v>16175.6609</v>
+        <v>1328.482983</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -4058,7 +4058,7 @@
         <v>2013</v>
       </c>
       <c r="D149" t="n">
-        <v>16289.67278</v>
+        <v>1330.395596</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -4075,10 +4075,10 @@
         <v>2014</v>
       </c>
       <c r="D150" t="n">
-        <v>16347.95768</v>
+        <v>1461.60599</v>
       </c>
       <c r="E150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151">
@@ -4092,7 +4092,7 @@
         <v>2015</v>
       </c>
       <c r="D151" t="n">
-        <v>16888.1259</v>
+        <v>1504.544716</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
@@ -4109,7 +4109,7 @@
         <v>2010</v>
       </c>
       <c r="D152" t="n">
-        <v>1316.188918</v>
+        <v>107.328402</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
@@ -4126,7 +4126,7 @@
         <v>2011</v>
       </c>
       <c r="D153" t="n">
-        <v>1415.761562</v>
+        <v>101.178067</v>
       </c>
       <c r="E153" t="s">
         <v>7</v>
@@ -4143,7 +4143,7 @@
         <v>2012</v>
       </c>
       <c r="D154" t="n">
-        <v>1328.482983</v>
+        <v>109.062686</v>
       </c>
       <c r="E154" t="s">
         <v>7</v>
@@ -4160,7 +4160,7 @@
         <v>2013</v>
       </c>
       <c r="D155" t="n">
-        <v>1330.395596</v>
+        <v>31.74533401</v>
       </c>
       <c r="E155" t="s">
         <v>7</v>
@@ -4177,7 +4177,7 @@
         <v>2014</v>
       </c>
       <c r="D156" t="n">
-        <v>1461.60599</v>
+        <v>29.02061176</v>
       </c>
       <c r="E156" t="s">
         <v>8</v>
@@ -4194,7 +4194,7 @@
         <v>2015</v>
       </c>
       <c r="D157" t="n">
-        <v>1504.544716</v>
+        <v>39.41376919</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
@@ -4211,7 +4211,7 @@
         <v>2010</v>
       </c>
       <c r="D158" t="n">
-        <v>107.328402</v>
+        <v>456.1308875</v>
       </c>
       <c r="E158" t="s">
         <v>7</v>
@@ -4228,7 +4228,7 @@
         <v>2011</v>
       </c>
       <c r="D159" t="n">
-        <v>101.178067</v>
+        <v>512.7862331</v>
       </c>
       <c r="E159" t="s">
         <v>7</v>
@@ -4245,7 +4245,7 @@
         <v>2012</v>
       </c>
       <c r="D160" t="n">
-        <v>109.062686</v>
+        <v>514.7211253</v>
       </c>
       <c r="E160" t="s">
         <v>7</v>
@@ -4262,7 +4262,7 @@
         <v>2013</v>
       </c>
       <c r="D161" t="n">
-        <v>31.74533401</v>
+        <v>476.9025885</v>
       </c>
       <c r="E161" t="s">
         <v>7</v>
@@ -4279,10 +4279,10 @@
         <v>2014</v>
       </c>
       <c r="D162" t="n">
-        <v>29.02061176</v>
+        <v>431.1120642</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
@@ -4296,7 +4296,7 @@
         <v>2015</v>
       </c>
       <c r="D163" t="n">
-        <v>39.41376919</v>
+        <v>422.1538062</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -4313,7 +4313,7 @@
         <v>2010</v>
       </c>
       <c r="D164" t="n">
-        <v>456.1308875</v>
+        <v>4218.809171</v>
       </c>
       <c r="E164" t="s">
         <v>7</v>
@@ -4330,7 +4330,7 @@
         <v>2011</v>
       </c>
       <c r="D165" t="n">
-        <v>512.7862331</v>
+        <v>4622.187719</v>
       </c>
       <c r="E165" t="s">
         <v>7</v>
@@ -4347,7 +4347,7 @@
         <v>2012</v>
       </c>
       <c r="D166" t="n">
-        <v>514.7211253</v>
+        <v>4785.350576</v>
       </c>
       <c r="E166" t="s">
         <v>7</v>
@@ -4364,7 +4364,7 @@
         <v>2013</v>
       </c>
       <c r="D167" t="n">
-        <v>476.9025885</v>
+        <v>4618.557211</v>
       </c>
       <c r="E167" t="s">
         <v>7</v>
@@ -4381,10 +4381,10 @@
         <v>2014</v>
       </c>
       <c r="D168" t="n">
-        <v>431.1120642</v>
+        <v>4463.211668</v>
       </c>
       <c r="E168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
@@ -4398,7 +4398,7 @@
         <v>2015</v>
       </c>
       <c r="D169" t="n">
-        <v>422.1538062</v>
+        <v>4555.486821</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
@@ -4415,7 +4415,7 @@
         <v>2010</v>
       </c>
       <c r="D170" t="n">
-        <v>4218.809171</v>
+        <v>2135.858361</v>
       </c>
       <c r="E170" t="s">
         <v>7</v>
@@ -4432,7 +4432,7 @@
         <v>2011</v>
       </c>
       <c r="D171" t="n">
-        <v>4622.187719</v>
+        <v>2353.817106</v>
       </c>
       <c r="E171" t="s">
         <v>7</v>
@@ -4449,7 +4449,7 @@
         <v>2012</v>
       </c>
       <c r="D172" t="n">
-        <v>4785.350576</v>
+        <v>2425.804903</v>
       </c>
       <c r="E172" t="s">
         <v>7</v>
@@ -4466,10 +4466,10 @@
         <v>2013</v>
       </c>
       <c r="D173" t="n">
-        <v>4618.557211</v>
+        <v>2508.544504</v>
       </c>
       <c r="E173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
@@ -4483,7 +4483,7 @@
         <v>2014</v>
       </c>
       <c r="D174" t="n">
-        <v>4463.211668</v>
+        <v>2761.38428</v>
       </c>
       <c r="E174" t="s">
         <v>8</v>
@@ -4500,7 +4500,7 @@
         <v>2015</v>
       </c>
       <c r="D175" t="n">
-        <v>4555.486821</v>
+        <v>3046.352223</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
@@ -4517,7 +4517,7 @@
         <v>2010</v>
       </c>
       <c r="D176" t="n">
-        <v>2135.858361</v>
+        <v>3100.456962</v>
       </c>
       <c r="E176" t="s">
         <v>7</v>
@@ -4534,7 +4534,7 @@
         <v>2011</v>
       </c>
       <c r="D177" t="n">
-        <v>2353.817106</v>
+        <v>3182.041964</v>
       </c>
       <c r="E177" t="s">
         <v>7</v>
@@ -4551,7 +4551,7 @@
         <v>2012</v>
       </c>
       <c r="D178" t="n">
-        <v>2425.804903</v>
+        <v>3452.552853</v>
       </c>
       <c r="E178" t="s">
         <v>7</v>
@@ -4568,10 +4568,10 @@
         <v>2013</v>
       </c>
       <c r="D179" t="n">
-        <v>2508.544504</v>
+        <v>3546.137337</v>
       </c>
       <c r="E179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -4585,7 +4585,7 @@
         <v>2014</v>
       </c>
       <c r="D180" t="n">
-        <v>2761.38428</v>
+        <v>3442.740754</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
@@ -4602,7 +4602,7 @@
         <v>2015</v>
       </c>
       <c r="D181" t="n">
-        <v>3046.352223</v>
+        <v>3635.643861</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
@@ -4619,7 +4619,7 @@
         <v>2010</v>
       </c>
       <c r="D182" t="n">
-        <v>3100.456962</v>
+        <v>222.1122914</v>
       </c>
       <c r="E182" t="s">
         <v>7</v>
@@ -4636,7 +4636,7 @@
         <v>2011</v>
       </c>
       <c r="D183" t="n">
-        <v>3182.041964</v>
+        <v>242.1746312</v>
       </c>
       <c r="E183" t="s">
         <v>7</v>
@@ -4653,7 +4653,7 @@
         <v>2012</v>
       </c>
       <c r="D184" t="n">
-        <v>3452.552853</v>
+        <v>288.2266947</v>
       </c>
       <c r="E184" t="s">
         <v>7</v>
@@ -4670,7 +4670,7 @@
         <v>2013</v>
       </c>
       <c r="D185" t="n">
-        <v>3546.137337</v>
+        <v>223.394417</v>
       </c>
       <c r="E185" t="s">
         <v>7</v>
@@ -4687,7 +4687,7 @@
         <v>2014</v>
       </c>
       <c r="D186" t="n">
-        <v>3442.740754</v>
+        <v>219.0635031</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
@@ -4704,7 +4704,7 @@
         <v>2015</v>
       </c>
       <c r="D187" t="n">
-        <v>3635.643861</v>
+        <v>219.8826802</v>
       </c>
       <c r="E187" t="s">
         <v>8</v>
@@ -4721,7 +4721,7 @@
         <v>2010</v>
       </c>
       <c r="D188" t="n">
-        <v>222.1122914</v>
+        <v>2355.351421</v>
       </c>
       <c r="E188" t="s">
         <v>7</v>
@@ -4738,7 +4738,7 @@
         <v>2011</v>
       </c>
       <c r="D189" t="n">
-        <v>242.1746312</v>
+        <v>2450.845745</v>
       </c>
       <c r="E189" t="s">
         <v>7</v>
@@ -4755,7 +4755,7 @@
         <v>2012</v>
       </c>
       <c r="D190" t="n">
-        <v>288.2266947</v>
+        <v>2570.938467</v>
       </c>
       <c r="E190" t="s">
         <v>7</v>
@@ -4772,7 +4772,7 @@
         <v>2013</v>
       </c>
       <c r="D191" t="n">
-        <v>223.394417</v>
+        <v>3140.061436</v>
       </c>
       <c r="E191" t="s">
         <v>7</v>
@@ -4789,7 +4789,7 @@
         <v>2014</v>
       </c>
       <c r="D192" t="n">
-        <v>219.0635031</v>
+        <v>3553.16083</v>
       </c>
       <c r="E192" t="s">
         <v>8</v>
@@ -4806,7 +4806,7 @@
         <v>2015</v>
       </c>
       <c r="D193" t="n">
-        <v>219.8826802</v>
+        <v>5047.368366</v>
       </c>
       <c r="E193" t="s">
         <v>8</v>
@@ -4823,7 +4823,7 @@
         <v>2010</v>
       </c>
       <c r="D194" t="n">
-        <v>2355.351421</v>
+        <v>1832.844344</v>
       </c>
       <c r="E194" t="s">
         <v>7</v>
@@ -4840,7 +4840,7 @@
         <v>2011</v>
       </c>
       <c r="D195" t="n">
-        <v>2450.845745</v>
+        <v>1871.891725</v>
       </c>
       <c r="E195" t="s">
         <v>7</v>
@@ -4857,7 +4857,7 @@
         <v>2012</v>
       </c>
       <c r="D196" t="n">
-        <v>2570.938467</v>
+        <v>1894.130254</v>
       </c>
       <c r="E196" t="s">
         <v>7</v>
@@ -4874,7 +4874,7 @@
         <v>2013</v>
       </c>
       <c r="D197" t="n">
-        <v>3140.061436</v>
+        <v>1886.392324</v>
       </c>
       <c r="E197" t="s">
         <v>7</v>
@@ -4891,7 +4891,7 @@
         <v>2014</v>
       </c>
       <c r="D198" t="n">
-        <v>3553.16083</v>
+        <v>1864.084445</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -4908,7 +4908,7 @@
         <v>2015</v>
       </c>
       <c r="D199" t="n">
-        <v>5047.368366</v>
+        <v>1868.084244</v>
       </c>
       <c r="E199" t="s">
         <v>8</v>
@@ -4925,7 +4925,7 @@
         <v>2010</v>
       </c>
       <c r="D200" t="n">
-        <v>1832.844344</v>
+        <v>491.3300148</v>
       </c>
       <c r="E200" t="s">
         <v>7</v>
@@ -4942,7 +4942,7 @@
         <v>2011</v>
       </c>
       <c r="D201" t="n">
-        <v>1871.891725</v>
+        <v>368.1014417</v>
       </c>
       <c r="E201" t="s">
         <v>7</v>
@@ -4959,7 +4959,7 @@
         <v>2012</v>
       </c>
       <c r="D202" t="n">
-        <v>1894.130254</v>
+        <v>503.0291934</v>
       </c>
       <c r="E202" t="s">
         <v>7</v>
@@ -4976,7 +4976,7 @@
         <v>2013</v>
       </c>
       <c r="D203" t="n">
-        <v>1886.392324</v>
+        <v>533.8512772</v>
       </c>
       <c r="E203" t="s">
         <v>7</v>
@@ -4993,7 +4993,7 @@
         <v>2014</v>
       </c>
       <c r="D204" t="n">
-        <v>1864.084445</v>
+        <v>538.668973</v>
       </c>
       <c r="E204" t="s">
         <v>8</v>
@@ -5010,7 +5010,7 @@
         <v>2015</v>
       </c>
       <c r="D205" t="n">
-        <v>1868.084244</v>
+        <v>592.9318093</v>
       </c>
       <c r="E205" t="s">
         <v>8</v>
@@ -17621,7 +17621,7 @@
         <v>2010</v>
       </c>
       <c r="D950" t="n">
-        <v>4122.239536</v>
+        <v>13237.00542</v>
       </c>
       <c r="E950" t="s">
         <v>7</v>
@@ -17638,7 +17638,7 @@
         <v>2011</v>
       </c>
       <c r="D951" t="n">
-        <v>3851.571781</v>
+        <v>13450.1907</v>
       </c>
       <c r="E951" t="s">
         <v>7</v>
@@ -17655,7 +17655,7 @@
         <v>2012</v>
       </c>
       <c r="D952" t="n">
-        <v>3805.505855</v>
+        <v>13537.26832</v>
       </c>
       <c r="E952" t="s">
         <v>7</v>
@@ -17672,7 +17672,7 @@
         <v>2013</v>
       </c>
       <c r="D953" t="n">
-        <v>3797.331521</v>
+        <v>13806.71925</v>
       </c>
       <c r="E953" t="s">
         <v>7</v>
@@ -17689,7 +17689,7 @@
         <v>2014</v>
       </c>
       <c r="D954" t="n">
-        <v>2955.978764</v>
+        <v>13659.18131</v>
       </c>
       <c r="E954" t="s">
         <v>7</v>
@@ -17706,7 +17706,7 @@
         <v>2015</v>
       </c>
       <c r="D955" t="n">
-        <v>2368.7386</v>
+        <v>13865.19829</v>
       </c>
       <c r="E955" t="s">
         <v>8</v>
@@ -17723,7 +17723,7 @@
         <v>2010</v>
       </c>
       <c r="D956" t="n">
-        <v>13237.00542</v>
+        <v>4122.239536</v>
       </c>
       <c r="E956" t="s">
         <v>7</v>
@@ -17740,7 +17740,7 @@
         <v>2011</v>
       </c>
       <c r="D957" t="n">
-        <v>13450.1907</v>
+        <v>3851.571781</v>
       </c>
       <c r="E957" t="s">
         <v>7</v>
@@ -17757,7 +17757,7 @@
         <v>2012</v>
       </c>
       <c r="D958" t="n">
-        <v>13537.26832</v>
+        <v>3805.505855</v>
       </c>
       <c r="E958" t="s">
         <v>7</v>
@@ -17774,7 +17774,7 @@
         <v>2013</v>
       </c>
       <c r="D959" t="n">
-        <v>13806.71925</v>
+        <v>3797.331521</v>
       </c>
       <c r="E959" t="s">
         <v>7</v>
@@ -17791,7 +17791,7 @@
         <v>2014</v>
       </c>
       <c r="D960" t="n">
-        <v>13659.18131</v>
+        <v>2955.978764</v>
       </c>
       <c r="E960" t="s">
         <v>7</v>
@@ -17808,7 +17808,7 @@
         <v>2015</v>
       </c>
       <c r="D961" t="n">
-        <v>13865.19829</v>
+        <v>2368.7386</v>
       </c>
       <c r="E961" t="s">
         <v>8</v>
@@ -19218,23 +19218,21 @@
         <v>50</v>
       </c>
       <c r="C23" t="n">
-        <v>491.3300148</v>
+        <v>312.6722702</v>
       </c>
       <c r="D23" t="n">
-        <v>368.1014417</v>
+        <v>331.8340081</v>
       </c>
       <c r="E23" t="n">
-        <v>503.0291934</v>
+        <v>401.7800978</v>
       </c>
       <c r="F23" t="n">
-        <v>533.8512772</v>
+        <v>423.2165221</v>
       </c>
       <c r="G23" t="n">
-        <v>538.668973</v>
-      </c>
-      <c r="H23" t="n">
-        <v>592.9318093</v>
-      </c>
+        <v>479.060816</v>
+      </c>
+      <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -19244,21 +19242,23 @@
         <v>52</v>
       </c>
       <c r="C24" t="n">
-        <v>312.6722702</v>
+        <v>430.8766689</v>
       </c>
       <c r="D24" t="n">
-        <v>331.8340081</v>
+        <v>474.1839289</v>
       </c>
       <c r="E24" t="n">
-        <v>401.7800978</v>
+        <v>480.4732925</v>
       </c>
       <c r="F24" t="n">
-        <v>423.2165221</v>
+        <v>493.4536253</v>
       </c>
       <c r="G24" t="n">
-        <v>479.060816</v>
-      </c>
-      <c r="H24"/>
+        <v>513.1193721</v>
+      </c>
+      <c r="H24" t="n">
+        <v>516.3361023</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -19268,22 +19268,22 @@
         <v>54</v>
       </c>
       <c r="C25" t="n">
-        <v>430.8766689</v>
+        <v>15994.93803</v>
       </c>
       <c r="D25" t="n">
-        <v>474.1839289</v>
+        <v>16002.06281</v>
       </c>
       <c r="E25" t="n">
-        <v>480.4732925</v>
+        <v>16175.6609</v>
       </c>
       <c r="F25" t="n">
-        <v>493.4536253</v>
+        <v>16289.67278</v>
       </c>
       <c r="G25" t="n">
-        <v>513.1193721</v>
+        <v>16347.95768</v>
       </c>
       <c r="H25" t="n">
-        <v>516.3361023</v>
+        <v>16888.1259</v>
       </c>
     </row>
     <row r="26">
@@ -19294,22 +19294,22 @@
         <v>56</v>
       </c>
       <c r="C26" t="n">
-        <v>15994.93803</v>
+        <v>1316.188918</v>
       </c>
       <c r="D26" t="n">
-        <v>16002.06281</v>
+        <v>1415.761562</v>
       </c>
       <c r="E26" t="n">
-        <v>16175.6609</v>
+        <v>1328.482983</v>
       </c>
       <c r="F26" t="n">
-        <v>16289.67278</v>
+        <v>1330.395596</v>
       </c>
       <c r="G26" t="n">
-        <v>16347.95768</v>
+        <v>1461.60599</v>
       </c>
       <c r="H26" t="n">
-        <v>16888.1259</v>
+        <v>1504.544716</v>
       </c>
     </row>
     <row r="27">
@@ -19320,22 +19320,22 @@
         <v>58</v>
       </c>
       <c r="C27" t="n">
-        <v>1316.188918</v>
+        <v>107.328402</v>
       </c>
       <c r="D27" t="n">
-        <v>1415.761562</v>
+        <v>101.178067</v>
       </c>
       <c r="E27" t="n">
-        <v>1328.482983</v>
+        <v>109.062686</v>
       </c>
       <c r="F27" t="n">
-        <v>1330.395596</v>
+        <v>31.74533401</v>
       </c>
       <c r="G27" t="n">
-        <v>1461.60599</v>
+        <v>29.02061176</v>
       </c>
       <c r="H27" t="n">
-        <v>1504.544716</v>
+        <v>39.41376919</v>
       </c>
     </row>
     <row r="28">
@@ -19346,22 +19346,22 @@
         <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>107.328402</v>
+        <v>456.1308875</v>
       </c>
       <c r="D28" t="n">
-        <v>101.178067</v>
+        <v>512.7862331</v>
       </c>
       <c r="E28" t="n">
-        <v>109.062686</v>
+        <v>514.7211253</v>
       </c>
       <c r="F28" t="n">
-        <v>31.74533401</v>
+        <v>476.9025885</v>
       </c>
       <c r="G28" t="n">
-        <v>29.02061176</v>
+        <v>431.1120642</v>
       </c>
       <c r="H28" t="n">
-        <v>39.41376919</v>
+        <v>422.1538062</v>
       </c>
     </row>
     <row r="29">
@@ -19372,22 +19372,22 @@
         <v>62</v>
       </c>
       <c r="C29" t="n">
-        <v>456.1308875</v>
+        <v>4218.809171</v>
       </c>
       <c r="D29" t="n">
-        <v>512.7862331</v>
+        <v>4622.187719</v>
       </c>
       <c r="E29" t="n">
-        <v>514.7211253</v>
+        <v>4785.350576</v>
       </c>
       <c r="F29" t="n">
-        <v>476.9025885</v>
+        <v>4618.557211</v>
       </c>
       <c r="G29" t="n">
-        <v>431.1120642</v>
+        <v>4463.211668</v>
       </c>
       <c r="H29" t="n">
-        <v>422.1538062</v>
+        <v>4555.486821</v>
       </c>
     </row>
     <row r="30">
@@ -19398,22 +19398,22 @@
         <v>64</v>
       </c>
       <c r="C30" t="n">
-        <v>4218.809171</v>
+        <v>2135.858361</v>
       </c>
       <c r="D30" t="n">
-        <v>4622.187719</v>
+        <v>2353.817106</v>
       </c>
       <c r="E30" t="n">
-        <v>4785.350576</v>
+        <v>2425.804903</v>
       </c>
       <c r="F30" t="n">
-        <v>4618.557211</v>
+        <v>2508.544504</v>
       </c>
       <c r="G30" t="n">
-        <v>4463.211668</v>
+        <v>2761.38428</v>
       </c>
       <c r="H30" t="n">
-        <v>4555.486821</v>
+        <v>3046.352223</v>
       </c>
     </row>
     <row r="31">
@@ -19424,22 +19424,22 @@
         <v>66</v>
       </c>
       <c r="C31" t="n">
-        <v>2135.858361</v>
+        <v>3100.456962</v>
       </c>
       <c r="D31" t="n">
-        <v>2353.817106</v>
+        <v>3182.041964</v>
       </c>
       <c r="E31" t="n">
-        <v>2425.804903</v>
+        <v>3452.552853</v>
       </c>
       <c r="F31" t="n">
-        <v>2508.544504</v>
+        <v>3546.137337</v>
       </c>
       <c r="G31" t="n">
-        <v>2761.38428</v>
+        <v>3442.740754</v>
       </c>
       <c r="H31" t="n">
-        <v>3046.352223</v>
+        <v>3635.643861</v>
       </c>
     </row>
     <row r="32">
@@ -19450,22 +19450,22 @@
         <v>68</v>
       </c>
       <c r="C32" t="n">
-        <v>3100.456962</v>
+        <v>222.1122914</v>
       </c>
       <c r="D32" t="n">
-        <v>3182.041964</v>
+        <v>242.1746312</v>
       </c>
       <c r="E32" t="n">
-        <v>3452.552853</v>
+        <v>288.2266947</v>
       </c>
       <c r="F32" t="n">
-        <v>3546.137337</v>
+        <v>223.394417</v>
       </c>
       <c r="G32" t="n">
-        <v>3442.740754</v>
+        <v>219.0635031</v>
       </c>
       <c r="H32" t="n">
-        <v>3635.643861</v>
+        <v>219.8826802</v>
       </c>
     </row>
     <row r="33">
@@ -19476,22 +19476,22 @@
         <v>70</v>
       </c>
       <c r="C33" t="n">
-        <v>222.1122914</v>
+        <v>2355.351421</v>
       </c>
       <c r="D33" t="n">
-        <v>242.1746312</v>
+        <v>2450.845745</v>
       </c>
       <c r="E33" t="n">
-        <v>288.2266947</v>
+        <v>2570.938467</v>
       </c>
       <c r="F33" t="n">
-        <v>223.394417</v>
+        <v>3140.061436</v>
       </c>
       <c r="G33" t="n">
-        <v>219.0635031</v>
+        <v>3553.16083</v>
       </c>
       <c r="H33" t="n">
-        <v>219.8826802</v>
+        <v>5047.368366</v>
       </c>
     </row>
     <row r="34">
@@ -19502,22 +19502,22 @@
         <v>72</v>
       </c>
       <c r="C34" t="n">
-        <v>2355.351421</v>
+        <v>1832.844344</v>
       </c>
       <c r="D34" t="n">
-        <v>2450.845745</v>
+        <v>1871.891725</v>
       </c>
       <c r="E34" t="n">
-        <v>2570.938467</v>
+        <v>1894.130254</v>
       </c>
       <c r="F34" t="n">
-        <v>3140.061436</v>
+        <v>1886.392324</v>
       </c>
       <c r="G34" t="n">
-        <v>3553.16083</v>
+        <v>1864.084445</v>
       </c>
       <c r="H34" t="n">
-        <v>5047.368366</v>
+        <v>1868.084244</v>
       </c>
     </row>
     <row r="35">
@@ -19528,22 +19528,22 @@
         <v>74</v>
       </c>
       <c r="C35" t="n">
-        <v>1832.844344</v>
+        <v>491.3300148</v>
       </c>
       <c r="D35" t="n">
-        <v>1871.891725</v>
+        <v>368.1014417</v>
       </c>
       <c r="E35" t="n">
-        <v>1894.130254</v>
+        <v>503.0291934</v>
       </c>
       <c r="F35" t="n">
-        <v>1886.392324</v>
+        <v>533.8512772</v>
       </c>
       <c r="G35" t="n">
-        <v>1864.084445</v>
+        <v>538.668973</v>
       </c>
       <c r="H35" t="n">
-        <v>1868.084244</v>
+        <v>592.9318093</v>
       </c>
     </row>
     <row r="36">
@@ -22724,22 +22724,22 @@
         <v>324</v>
       </c>
       <c r="C160" t="n">
-        <v>4122.239536</v>
+        <v>13237.00542</v>
       </c>
       <c r="D160" t="n">
-        <v>3851.571781</v>
+        <v>13450.1907</v>
       </c>
       <c r="E160" t="n">
-        <v>3805.505855</v>
+        <v>13537.26832</v>
       </c>
       <c r="F160" t="n">
-        <v>3797.331521</v>
+        <v>13806.71925</v>
       </c>
       <c r="G160" t="n">
-        <v>2955.978764</v>
+        <v>13659.18131</v>
       </c>
       <c r="H160" t="n">
-        <v>2368.7386</v>
+        <v>13865.19829</v>
       </c>
     </row>
     <row r="161">
@@ -22750,22 +22750,22 @@
         <v>326</v>
       </c>
       <c r="C161" t="n">
-        <v>13237.00542</v>
+        <v>4122.239536</v>
       </c>
       <c r="D161" t="n">
-        <v>13450.1907</v>
+        <v>3851.571781</v>
       </c>
       <c r="E161" t="n">
-        <v>13537.26832</v>
+        <v>3805.505855</v>
       </c>
       <c r="F161" t="n">
-        <v>13806.71925</v>
+        <v>3797.331521</v>
       </c>
       <c r="G161" t="n">
-        <v>13659.18131</v>
+        <v>2955.978764</v>
       </c>
       <c r="H161" t="n">
-        <v>13865.19829</v>
+        <v>2368.7386</v>
       </c>
     </row>
     <row r="162">
